--- a/target/test-classes/testData/TestSuite1.xlsx
+++ b/target/test-classes/testData/TestSuite1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\Desktop\LifeSpeed-mainy\LifeSpeed-main\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D643BEF9-0A89-482D-9886-A8B4A4D28945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41DA672-B15C-4832-8987-D825B3556DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24238" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24243" uniqueCount="1005">
   <si>
     <t>TCID</t>
   </si>
@@ -3343,6 +3343,15 @@
   </si>
   <si>
     <t>Email in Saml</t>
+  </si>
+  <si>
+    <t>Change_UserName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Username in Saml</t>
   </si>
 </sst>
 </file>
@@ -63107,10 +63116,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3BEA62-13BE-46DB-B8F7-C7C580C443BA}">
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -63259,17 +63268,17 @@
         <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>1004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>1002</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>32</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -63277,17 +63286,17 @@
         <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -63295,17 +63304,17 @@
         <v>426</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>612</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>618</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -63313,7 +63322,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
@@ -63323,7 +63332,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -63331,7 +63340,7 @@
         <v>449</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>31</v>
@@ -63341,7 +63350,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -63349,17 +63358,17 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>587</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -63367,17 +63376,17 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>588</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>587</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -63385,26 +63394,28 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>425</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>424</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>425</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>424</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -63417,14 +63428,12 @@
         <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>4</v>
       </c>
@@ -63435,12 +63444,14 @@
         <v>55</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E18" s="4" t="s">
         <v>4</v>
       </c>
@@ -63451,10 +63462,10 @@
         <v>59</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -63467,14 +63478,12 @@
         <v>63</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>4</v>
       </c>
@@ -63485,12 +63494,14 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>4</v>
       </c>
@@ -63500,52 +63511,50 @@
       <c r="A22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>56</v>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>802</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>801</v>
+        <v>62</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>4</v>
@@ -63556,13 +63565,15 @@
       <c r="A25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>128</v>
+      <c r="B25" s="5" t="s">
+        <v>802</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>801</v>
+      </c>
       <c r="E25" s="4" t="s">
         <v>4</v>
       </c>
@@ -63572,52 +63583,50 @@
       <c r="A26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>64</v>
+      <c r="B26" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>73</v>
+      <c r="B28" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>4</v>
@@ -63629,12 +63638,14 @@
         <v>90</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E29" s="4" t="s">
         <v>4</v>
       </c>
@@ -63645,39 +63656,35 @@
         <v>92</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>77</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>427</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -63685,19 +63692,19 @@
         <v>97</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>15</v>
+        <v>427</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -63705,30 +63712,34 @@
         <v>101</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E34" s="4" t="s">
         <v>4</v>
       </c>
@@ -63739,14 +63750,12 @@
         <v>107</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>4</v>
       </c>
@@ -63757,12 +63766,14 @@
         <v>108</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E36" s="4" t="s">
         <v>4</v>
       </c>
@@ -63773,39 +63784,35 @@
         <v>112</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>110</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -63813,57 +63820,57 @@
         <v>117</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>955</v>
+        <v>113</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>950</v>
+        <v>114</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>960</v>
-      </c>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -63871,19 +63878,19 @@
         <v>124</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -63891,19 +63898,19 @@
         <v>127</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -63911,30 +63918,34 @@
         <v>130</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>91</v>
+        <v>959</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>53</v>
+        <v>954</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E45" s="4" t="s">
         <v>4</v>
       </c>
@@ -63944,32 +63955,30 @@
       <c r="A46" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>119</v>
+      <c r="B46" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>120</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>4</v>
@@ -63981,30 +63990,32 @@
         <v>142</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="4"/>
+      <c r="B49" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="E49" s="4" t="s">
         <v>4</v>
       </c>
@@ -64014,15 +64025,13 @@
       <c r="A50" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="B50" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
         <v>4</v>
       </c>
@@ -64033,13 +64042,13 @@
         <v>153</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>4</v>
@@ -64051,13 +64060,13 @@
         <v>157</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>4</v>
@@ -64069,13 +64078,13 @@
         <v>161</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>4</v>
@@ -64086,14 +64095,14 @@
       <c r="A54" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>143</v>
+      <c r="B54" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>4</v>
@@ -64104,120 +64113,118 @@
       <c r="A55" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>146</v>
+      <c r="B55" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>150</v>
+      <c r="B56" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -64225,19 +64232,19 @@
         <v>193</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -64245,19 +64252,19 @@
         <v>197</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -64265,19 +64272,19 @@
         <v>201</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -64285,59 +64292,59 @@
         <v>205</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -64345,19 +64352,19 @@
         <v>217</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -64365,19 +64372,19 @@
         <v>221</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -64385,19 +64392,19 @@
         <v>225</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -64405,19 +64412,19 @@
         <v>229</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -64425,19 +64432,19 @@
         <v>233</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -64445,203 +64452,205 @@
         <v>237</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>241</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>246</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>230</v>
+      <c r="B76" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>234</v>
+      <c r="B77" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>238</v>
+      <c r="B78" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>128</v>
+      <c r="B79" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>244</v>
+      <c r="B80" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>260</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>940</v>
+        <v>245</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>251</v>
+        <v>940</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>4</v>
@@ -64652,16 +64661,18 @@
       <c r="A83" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>91</v>
+      <c r="B83" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E83" s="4"/>
+        <v>251</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -64669,12 +64680,14 @@
         <v>269</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D84" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
@@ -64682,96 +64695,90 @@
       <c r="A85" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>255</v>
+      <c r="B85" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>257</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D86" s="4"/>
+      <c r="B86" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="E86" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F86" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="B87" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>15</v>
+        <v>427</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>986</v>
+      <c r="B89" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>989</v>
+        <v>266</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>992</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -64779,19 +64786,19 @@
         <v>282</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -64799,157 +64806,159 @@
         <v>284</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>988</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>65</v>
+        <v>987</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>24</v>
+      <c r="B92" s="15" t="s">
+        <v>988</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>53</v>
+        <v>991</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F92" s="4"/>
+      <c r="F92" s="4" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>286</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E93" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>271</v>
+      <c r="B94" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>272</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>930</v>
+        <v>272</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>292</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>296</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>300</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>91</v>
+      <c r="B99" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>53</v>
+        <v>927</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>4</v>
@@ -64961,12 +64970,14 @@
         <v>308</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D100" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E100" s="4" t="s">
         <v>4</v>
       </c>
@@ -64977,14 +64988,12 @@
         <v>312</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
         <v>4</v>
       </c>
@@ -64995,12 +65004,14 @@
         <v>313</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D102" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E102" s="4" t="s">
         <v>4</v>
       </c>
@@ -65011,39 +65022,35 @@
         <v>314</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>289</v>
+        <v>27</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>290</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>291</v>
-      </c>
+      <c r="F103" s="4"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>589</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -65051,19 +65058,19 @@
         <v>317</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -65071,19 +65078,19 @@
         <v>318</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -65091,19 +65098,19 @@
         <v>321</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -65117,7 +65124,7 @@
         <v>15</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>941</v>
+        <v>306</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>4</v>
@@ -65130,19 +65137,21 @@
       <c r="A109" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>309</v>
+      <c r="B109" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>311</v>
+        <v>941</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F109" s="4"/>
+      <c r="F109" s="4" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
@@ -65152,7 +65161,7 @@
         <v>309</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>311</v>
@@ -65166,31 +65175,33 @@
       <c r="A111" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>392</v>
+      <c r="B111" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F111" s="12"/>
+      <c r="F111" s="4"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>333</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>392</v>
+      </c>
       <c r="E112" s="4" t="s">
         <v>4</v>
       </c>
@@ -65201,39 +65212,35 @@
         <v>334</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>395</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D113" s="11"/>
       <c r="E113" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F113" s="12" t="s">
-        <v>964</v>
-      </c>
+      <c r="F113" s="12"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>336</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>399</v>
+        <v>964</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -65241,66 +65248,68 @@
         <v>337</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F115" s="12"/>
+      <c r="F115" s="12" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>326</v>
+      <c r="B116" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F116" s="12"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="D117" s="11"/>
+      <c r="B117" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>326</v>
+      </c>
       <c r="E117" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F117" s="12"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>311</v>
-      </c>
+      <c r="B118" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="D118" s="11"/>
       <c r="E118" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F118" s="4"/>
+      <c r="F118" s="12"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
@@ -65310,7 +65319,7 @@
         <v>309</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>311</v>
@@ -65324,14 +65333,14 @@
       <c r="A120" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>91</v>
+      <c r="B120" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>24</v>
+        <v>420</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>53</v>
+        <v>311</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>4</v>
@@ -65343,12 +65352,14 @@
         <v>418</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D121" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E121" s="4" t="s">
         <v>4</v>
       </c>
@@ -65359,14 +65370,12 @@
         <v>351</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>316</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
         <v>4</v>
       </c>
@@ -65376,13 +65385,15 @@
       <c r="A123" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B123" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" s="9"/>
+      <c r="B123" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>316</v>
+      </c>
       <c r="E123" s="4" t="s">
         <v>4</v>
       </c>
@@ -65398,7 +65409,7 @@
       <c r="C124" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D124" s="4"/>
+      <c r="D124" s="9"/>
       <c r="E124" s="4" t="s">
         <v>4</v>
       </c>
@@ -65408,15 +65419,13 @@
       <c r="A125" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>320</v>
-      </c>
+      <c r="B125" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
         <v>4</v>
       </c>
@@ -65426,13 +65435,15 @@
       <c r="A126" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B126" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D126" s="4"/>
+      <c r="B126" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="E126" s="4" t="s">
         <v>4</v>
       </c>
@@ -65442,15 +65453,13 @@
       <c r="A127" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="B127" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
         <v>4</v>
       </c>
@@ -65461,12 +65470,14 @@
         <v>366</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D128" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="E128" s="4" t="s">
         <v>4</v>
       </c>
@@ -65477,48 +65488,46 @@
         <v>368</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>382</v>
+        <v>259</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>404</v>
-      </c>
+      <c r="F129" s="4"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D130" s="11"/>
+      <c r="B130" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F130" s="12"/>
+      <c r="F130" s="4" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>373</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>391</v>
+        <v>42</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>392</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D131" s="11"/>
       <c r="E131" s="4" t="s">
         <v>4</v>
       </c>
@@ -65529,12 +65538,14 @@
         <v>377</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>392</v>
+      </c>
       <c r="E132" s="4" t="s">
         <v>4</v>
       </c>
@@ -65545,39 +65556,35 @@
         <v>378</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>395</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D133" s="11"/>
       <c r="E133" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F133" s="12" t="s">
-        <v>396</v>
-      </c>
+      <c r="F133" s="12"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>381</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -65585,30 +65592,34 @@
         <v>384</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F135" s="12"/>
+      <c r="F135" s="12" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B136" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D136" s="13"/>
+      <c r="B136" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>401</v>
+      </c>
       <c r="E136" s="4" t="s">
         <v>4</v>
       </c>
@@ -65618,15 +65629,13 @@
       <c r="A137" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>405</v>
-      </c>
+      <c r="B137" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" s="13"/>
       <c r="E137" s="4" t="s">
         <v>4</v>
       </c>
@@ -65636,13 +65645,15 @@
       <c r="A138" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B138" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D138" s="13"/>
+      <c r="B138" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>405</v>
+      </c>
       <c r="E138" s="4" t="s">
         <v>4</v>
       </c>
@@ -65652,40 +65663,36 @@
       <c r="A139" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B139" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>395</v>
-      </c>
+      <c r="B139" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="13"/>
       <c r="E139" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F139" s="12" t="s">
-        <v>415</v>
-      </c>
+      <c r="F139" s="12"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>389</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -65693,30 +65700,34 @@
         <v>390</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F141" s="12"/>
+      <c r="F141" s="12" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B142" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D142" s="13"/>
+      <c r="B142" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>401</v>
+      </c>
       <c r="E142" s="4" t="s">
         <v>4</v>
       </c>
@@ -65726,15 +65737,13 @@
       <c r="A143" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>416</v>
-      </c>
+      <c r="B143" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" s="13"/>
       <c r="E143" s="4" t="s">
         <v>4</v>
       </c>
@@ -65744,62 +65753,62 @@
       <c r="A144" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>326</v>
+      <c r="B144" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F144" s="12"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B145" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="D145" s="11"/>
+      <c r="B145" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>326</v>
+      </c>
       <c r="E145" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F145" s="12"/>
-    </row>
-    <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B146" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>939</v>
-      </c>
+      <c r="B146" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="D146" s="11"/>
       <c r="E146" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F146" s="4"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F146" s="12"/>
+    </row>
+    <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>411</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>939</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>4</v>
@@ -65811,10 +65820,10 @@
         <v>412</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>14</v>
+        <v>331</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>16</v>
@@ -65822,37 +65831,37 @@
       <c r="E148" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F148" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="F148" s="4"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>413</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>335</v>
+        <v>14</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>332</v>
+        <v>15</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F149" s="4"/>
+      <c r="F149" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>414</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>19</v>
+        <v>335</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>20</v>
@@ -65860,39 +65869,41 @@
       <c r="E150" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F150" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F150" s="4"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>419</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F151" s="4"/>
+      <c r="F151" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>450</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D152" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E152" s="4" t="s">
         <v>4</v>
       </c>
@@ -65903,14 +65914,12 @@
         <v>451</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>341</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
         <v>4</v>
       </c>
@@ -65921,13 +65930,13 @@
         <v>452</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>344</v>
+        <v>24</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>4</v>
@@ -65939,13 +65948,13 @@
         <v>453</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>24</v>
+        <v>344</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>4</v>
@@ -65956,13 +65965,15 @@
       <c r="A156" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D156" s="4"/>
+      <c r="B156" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>348</v>
+      </c>
       <c r="E156" s="4" t="s">
         <v>4</v>
       </c>
@@ -65972,15 +65983,13 @@
       <c r="A157" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>350</v>
-      </c>
+      <c r="B157" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" s="4"/>
       <c r="E157" s="4" t="s">
         <v>4</v>
       </c>
@@ -65991,39 +66000,37 @@
         <v>456</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F158" s="5" t="s">
-        <v>354</v>
-      </c>
+      <c r="F158" s="4"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>457</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F159" s="4" t="s">
-        <v>358</v>
+      <c r="F159" s="5" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -66031,30 +66038,34 @@
         <v>458</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F160" s="4"/>
+      <c r="F160" s="4" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B161" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D161" s="4"/>
+      <c r="B161" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>361</v>
+      </c>
       <c r="E161" s="4" t="s">
         <v>4</v>
       </c>
@@ -66064,15 +66075,13 @@
       <c r="A162" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>580</v>
-      </c>
+      <c r="B162" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" s="4"/>
       <c r="E162" s="4" t="s">
         <v>4</v>
       </c>
@@ -66082,13 +66091,15 @@
       <c r="A163" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D163" s="4"/>
+      <c r="B163" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>580</v>
+      </c>
       <c r="E163" s="4" t="s">
         <v>4</v>
       </c>
@@ -66099,10 +66110,10 @@
         <v>462</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="4" t="s">
@@ -66114,15 +66125,13 @@
       <c r="A165" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>370</v>
-      </c>
+      <c r="B165" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D165" s="4"/>
       <c r="E165" s="4" t="s">
         <v>4</v>
       </c>
@@ -66132,13 +66141,15 @@
       <c r="A166" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B166" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D166" s="4"/>
+      <c r="B166" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>370</v>
+      </c>
       <c r="E166" s="4" t="s">
         <v>4</v>
       </c>
@@ -66148,47 +66159,47 @@
       <c r="A167" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>376</v>
-      </c>
+      <c r="B167" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F167" s="4" t="s">
-        <v>760</v>
-      </c>
+      <c r="F167" s="4"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B168" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D168" s="4"/>
+      <c r="B168" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>376</v>
+      </c>
       <c r="E168" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F168" s="4"/>
+      <c r="F168" s="4" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B169" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>380</v>
+      <c r="B169" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
@@ -66200,62 +66211,60 @@
       <c r="A170" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B170" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B170" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F170" s="4"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B171" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="D171" s="11"/>
-      <c r="E171" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F171" s="12"/>
-    </row>
-    <row r="172" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B171" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B172" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>939</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F172" s="4"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B172" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" s="12"/>
+    </row>
+    <row r="173" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>471</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>939</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>4</v>
@@ -66267,10 +66276,10 @@
         <v>472</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>14</v>
+        <v>331</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>16</v>
@@ -66278,37 +66287,37 @@
       <c r="E174" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F174" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="F174" s="4"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>473</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>335</v>
+        <v>14</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>332</v>
+        <v>15</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F175" s="4"/>
+      <c r="F175" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>489</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>19</v>
+        <v>335</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>20</v>
@@ -66316,39 +66325,41 @@
       <c r="E176" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F176" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F176" s="4"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>490</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F177" s="4"/>
+      <c r="F177" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>491</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D178" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E178" s="4" t="s">
         <v>4</v>
       </c>
@@ -66359,14 +66370,12 @@
         <v>492</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>341</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
         <v>4</v>
       </c>
@@ -66377,13 +66386,13 @@
         <v>493</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>344</v>
+        <v>24</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>4</v>
@@ -66395,13 +66404,13 @@
         <v>494</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>24</v>
+        <v>344</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>4</v>
@@ -66412,13 +66421,15 @@
       <c r="A182" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B182" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D182" s="4"/>
+      <c r="B182" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>348</v>
+      </c>
       <c r="E182" s="4" t="s">
         <v>4</v>
       </c>
@@ -66428,15 +66439,13 @@
       <c r="A183" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>350</v>
-      </c>
+      <c r="B183" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
         <v>4</v>
       </c>
@@ -66447,39 +66456,37 @@
         <v>497</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F184" s="5" t="s">
-        <v>354</v>
-      </c>
+      <c r="F184" s="4"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>498</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F185" s="4" t="s">
-        <v>358</v>
+      <c r="F185" s="5" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -66487,30 +66494,34 @@
         <v>499</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F186" s="4"/>
+      <c r="F186" s="4" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B187" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D187" s="4"/>
+      <c r="B187" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>361</v>
+      </c>
       <c r="E187" s="4" t="s">
         <v>4</v>
       </c>
@@ -66520,15 +66531,13 @@
       <c r="A188" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>580</v>
-      </c>
+      <c r="B188" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" s="4"/>
       <c r="E188" s="4" t="s">
         <v>4</v>
       </c>
@@ -66538,13 +66547,15 @@
       <c r="A189" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B189" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D189" s="4"/>
+      <c r="B189" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>580</v>
+      </c>
       <c r="E189" s="4" t="s">
         <v>4</v>
       </c>
@@ -66555,10 +66566,10 @@
         <v>503</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4" t="s">
@@ -66570,15 +66581,13 @@
       <c r="A191" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="B191" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>583</v>
-      </c>
+      <c r="B191" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
         <v>4</v>
       </c>
@@ -66588,13 +66597,15 @@
       <c r="A192" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="B192" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D192" s="4"/>
+      <c r="B192" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>583</v>
+      </c>
       <c r="E192" s="4" t="s">
         <v>4</v>
       </c>
@@ -66604,47 +66615,47 @@
       <c r="A193" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B193" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="B193" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" s="4"/>
       <c r="E193" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F193" s="4" t="s">
-        <v>761</v>
-      </c>
+      <c r="F193" s="4"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="B194" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D194" s="4"/>
+      <c r="B194" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>584</v>
+      </c>
       <c r="E194" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F194" s="4"/>
+      <c r="F194" s="4" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="B195" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>585</v>
+      <c r="B195" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="4" t="s">
@@ -66656,24 +66667,40 @@
       <c r="A196" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B196" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>28</v>
+      <c r="B196" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>585</v>
       </c>
       <c r="D196" s="4"/>
       <c r="E196" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F196" s="4"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F197" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{AD3D52DA-E8ED-444D-90DB-4973DBA494EE}"/>
-    <hyperlink ref="D146" r:id="rId2" xr:uid="{11D08486-EE89-44B6-A520-E9DC4CDE86B6}"/>
-    <hyperlink ref="D172" r:id="rId3" xr:uid="{FD60AC73-26A6-4795-A259-2BCE1C44CFAF}"/>
+    <hyperlink ref="D147" r:id="rId2" xr:uid="{11D08486-EE89-44B6-A520-E9DC4CDE86B6}"/>
+    <hyperlink ref="D173" r:id="rId3" xr:uid="{FD60AC73-26A6-4795-A259-2BCE1C44CFAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
